--- a/诗歌清单.xlsx
+++ b/诗歌清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8E17F-649C-457A-AFE0-65B5820E0A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2F93E-8A7D-4FF1-B626-37AA8FF3DA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>有一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惟一最爱是你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一的爱慕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>诗歌本名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/17/516e24cb00769e04100000ca.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天韵之声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyzs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和散那诗篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsnsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d2a00769e8024000dab.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/14/5169fdd600769ebc27000046.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/12/51674bda00769e2c0c000004.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmzq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞美之泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/05/07/51886d1200769e702f000022.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊诗歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xysg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/23/5176312c00769eb81b00009d.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/05/08/5189c50700769e60220000cc.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥土音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/05/07/5188814700769ec82b000031.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/11/5166ac6e00769e6c1d0000ac.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/11/5166788f00769e301d000163.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2017/01/25/5887a62675a6e154b14dd537.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天匙敬拜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyjb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小草诗歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2016/03/04/56d8d6178362dc9a5e8b48f0.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cea1300769ec81c000013.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2016/04/11/570b50388362dc1e728b470a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠天音乐事工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣以琳音乐事工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sylyysg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttyysg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyzg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2016/08/02/579f78768362dc1b3d8b458e.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2017/03/06/58bcdbf175a6e17c4f574b63.jpg</t>
+  </si>
+  <si>
+    <t>喜乐赞美主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlzmz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/11/06/545b05cf8062dc250b8bb218.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命河灵粮堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smhllt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/14/516a4c3e00769e9002000090.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/09/5162f38f00769ec01f00003b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2017/02/28/58b4f83175a6e11ba714f30b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cfaa500769e381c000013.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cb96800769e0c1c000085.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/11/516679b400769e741e00003a.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/05/07/51887c3e00769e702f0000a2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://mp3.9ku.com/mp3/466/465913.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,7 +489,205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诗歌本名称</t>
+    <t>http://file.zanmeishi.com/store/2015/05/01/55436f0c8062dcb9638c40fd.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cb5b000769e0c1c000070.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>829.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cf87e00769ec81c000046.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/05/07/518870be00769e702f000045.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2017/03/01/58b6cab075a6e11bab2813e5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/11/516678ef00769e741e00001c.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d0200769e8024000b93.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/05/11/518d98c200769ec03500001c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天韵诗歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tysg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d4900769e8024000f5b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cfaa500769e381c00000a.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>527.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞美诗选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一最爱是你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qita</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wydam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wydam.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.png</t>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2017/02/28/58b55ba175a6e16fe51ef047.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d1100769e8024000c4f.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d3500769e8024000e4f.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/09/539506ff00769e741800015a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ettd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/11/14/5465d4558062dc913b8b6efe.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯台诗选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2015/01/06/54ab97af8062dc0b0c8b89d1.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2018/11/06/5be1a8ccd9634377641c5af2.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tygtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/07/03/51d38bfe00769eec1c00001c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2013/04/16/516cf98b00769ec81c000073.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d3c00769e8024000ea7.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2015/01/06/54ab97b08062dc0b0c8b89e6.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/03/538d7d2a00769e8024000daf.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2014/06/06/539128f600769efc1800108c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2015/01/05/54aab0ab8062dc733a8b9354.gif</t>
+  </si>
+  <si>
+    <t>赞美诗集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmsj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>268.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2016/01/12/5694b3c28362dca6078b734a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2016/01/26/56a78afc8362dc17498b48f1.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2020/08/04/5f29442a13655379e531c7bd.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwgqd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yrsn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +695,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +724,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -381,10 +778,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -392,9 +790,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,17 +1106,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
@@ -731,19 +1131,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -753,6 +1153,18 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>915</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -761,6 +1173,18 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <v>219</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -769,6 +1193,18 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>524</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -777,6 +1213,18 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>1010</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -785,6 +1233,18 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>305</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -793,6 +1253,18 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>311</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -801,6 +1273,18 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>511</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -809,6 +1293,18 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>712</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -817,6 +1313,18 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>1410</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -825,6 +1333,18 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>469</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -833,6 +1353,18 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -841,6 +1373,18 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13">
+        <v>1611</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -849,6 +1393,18 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>727</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -857,6 +1413,18 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -865,6 +1433,18 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -873,6 +1453,18 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>962</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -881,6 +1473,18 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18">
+        <v>407</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -889,6 +1493,18 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>858</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -897,6 +1513,18 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20">
+        <v>503</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -906,19 +1534,19 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
       <c r="E21">
         <v>312</v>
       </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
+      <c r="F21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -928,6 +1556,18 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>289</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -936,6 +1576,18 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>777</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -944,6 +1596,18 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>645</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -952,6 +1616,18 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>490</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -960,6 +1636,18 @@
       <c r="B26" t="s">
         <v>14</v>
       </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>505</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -968,6 +1656,18 @@
       <c r="B27" t="s">
         <v>20</v>
       </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27">
+        <v>205</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -976,6 +1676,18 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>638</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -984,6 +1696,18 @@
       <c r="B29" t="s">
         <v>22</v>
       </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>829</v>
+      </c>
+      <c r="G29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -992,6 +1716,18 @@
       <c r="B30" t="s">
         <v>23</v>
       </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>744</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1000,6 +1736,18 @@
       <c r="B31" t="s">
         <v>24</v>
       </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1008,274 +1756,636 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <v>408</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33">
+        <v>649</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34">
+        <v>480</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>85</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>327</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38">
+        <v>774</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39">
+        <v>527</v>
+      </c>
+      <c r="G39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43">
+        <v>532</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>132</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>260</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46">
+        <v>87</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47">
+        <v>180</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48">
+        <v>504</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50">
+        <v>604</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>759</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52">
+        <v>282</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53">
+        <v>502</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54">
+        <v>220</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <v>398</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <v>605</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57">
+        <v>268</v>
+      </c>
+      <c r="G57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <v>905</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59">
+        <v>707</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66"/>
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F21" r:id="rId1" xr:uid="{63D14409-AF7B-4548-BD03-5652DE8C91D1}"/>
     <hyperlink ref="G21" r:id="rId2" xr:uid="{FC684CE1-E091-45F5-A41C-A877CF77595F}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{12132AFE-36A4-42BA-BD5F-2E827C322C54}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{5D156B41-036A-4154-9E00-EFE810957421}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{8EFC9454-D87D-4A26-9F53-C06ECC2E6CAA}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{D4C63673-98F2-4668-BBE3-9CC628E4403A}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{006EE4C2-F8CD-4EBD-A20E-351D95A7A2B7}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{08B50DC4-B410-4AAB-BCDF-FDABA9DE4FEE}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{BDF8B0C1-193D-4D83-A5EC-623D062A15F1}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{1CA3779C-AA58-4388-9A0E-2E103D73D4C2}"/>
+    <hyperlink ref="G10" r:id="rId11" xr:uid="{2534ECEE-2E05-49C8-9238-EAE455C928AC}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{9AB8B529-CE79-4781-B755-ED5A93D9DBDB}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{A5F00593-B90F-4843-B4DF-8D4CBE38C148}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{9021DE4B-5DE2-4683-AB43-72F6CACBCC18}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{A403DD73-96F4-4B84-8020-141FA831E4A2}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{DD0DC94E-46D5-40F2-9EC9-AA788E9711D5}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{5F49E5F1-4A32-466E-AFFD-5226D5BFA397}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{5BABA99C-37BE-484B-980A-4DED096C1CE7}"/>
+    <hyperlink ref="G19" r:id="rId19" xr:uid="{303F1CE6-C3E6-4DEB-868A-5E67DA03EC33}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{C6BFF365-36B5-4D70-9D12-2436FC62EAE3}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{12817A94-9559-4E39-9F9D-C850DA79A053}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{51C559F6-95DC-4336-A335-0B702B3D1AB3}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{9AEE74D3-241E-4321-AD8D-F19FB2C60930}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{E35C2148-7818-4387-9B15-A1F909074C47}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{5B9C30CB-8F6D-4A15-9746-EFF6B10237F7}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{158B9CA8-9BAB-480D-922D-F1A6E57929C7}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{ECC3FB39-1C25-4D20-BD33-FA449E564292}"/>
+    <hyperlink ref="G30" r:id="rId28" xr:uid="{6D8D0BBB-9B29-439D-8A36-63A79FD771C3}"/>
+    <hyperlink ref="G32" r:id="rId29" xr:uid="{167DB2FB-CDAD-406C-9E6B-D912AFAF1B42}"/>
+    <hyperlink ref="G33" r:id="rId30" xr:uid="{1EC5D319-09D2-4630-93C6-A6B307A32D08}"/>
+    <hyperlink ref="G34" r:id="rId31" xr:uid="{F69A7C99-F7E2-468F-A827-C58FBB5BD390}"/>
+    <hyperlink ref="G35" r:id="rId32" xr:uid="{C7939B7E-D99A-40EC-B980-3905D28106BA}"/>
+    <hyperlink ref="G36" r:id="rId33" xr:uid="{1FB47F5E-54FA-4E57-BD7D-3BF173E775C9}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{39D0A5D2-E6D9-4496-BA83-B16AEBBB0EE9}"/>
+    <hyperlink ref="G38" r:id="rId35" xr:uid="{B9150320-936F-4A8B-BD36-5C6A6CD5E2E3}"/>
+    <hyperlink ref="G43" r:id="rId36" xr:uid="{07C9D18F-0022-42F3-A3FF-E270EA24494B}"/>
+    <hyperlink ref="G44" r:id="rId37" xr:uid="{D5B19F4F-9B48-4FE0-BDBD-5E1AEADDD6FE}"/>
+    <hyperlink ref="G45" r:id="rId38" xr:uid="{6684AE24-3810-44DE-8992-0A43A1BC1ED3}"/>
+    <hyperlink ref="G46" r:id="rId39" xr:uid="{A0D01474-68B5-4B52-B098-BFB3D968AFFC}"/>
+    <hyperlink ref="G47" r:id="rId40" xr:uid="{C055F7BE-E806-448D-84CE-A2F4234E7867}"/>
+    <hyperlink ref="G48" r:id="rId41" xr:uid="{8A55557C-0399-4E05-A78E-0CE4BA3AB916}"/>
+    <hyperlink ref="G49" r:id="rId42" xr:uid="{C9E7A4C4-33AF-456F-A2E1-9A2809DA866A}"/>
+    <hyperlink ref="G50" r:id="rId43" xr:uid="{886C2D99-E6EB-4CE7-BD03-9A31F6C3F002}"/>
+    <hyperlink ref="G51" r:id="rId44" xr:uid="{30646785-90DE-48C8-8935-E1C295EC85EC}"/>
+    <hyperlink ref="G52" r:id="rId45" xr:uid="{117F2B82-7E53-4847-89B1-8755F73EA97C}"/>
+    <hyperlink ref="G53" r:id="rId46" xr:uid="{9EC703A8-4825-4556-9F1F-0585783F3344}"/>
+    <hyperlink ref="G54" r:id="rId47" xr:uid="{FE37E88D-9644-4683-B47C-312629CAEF2C}"/>
+    <hyperlink ref="G55" r:id="rId48" xr:uid="{73EEA054-C7DB-4660-8EEA-7C7234BCF6DA}"/>
+    <hyperlink ref="G56" r:id="rId49" xr:uid="{A6EB22A0-A1CA-4D6D-8161-829173CF26FD}"/>
+    <hyperlink ref="G58" r:id="rId50" xr:uid="{CCEFE13D-7F3F-4ECA-B898-4DC143F6202F}"/>
+    <hyperlink ref="G59" r:id="rId51" xr:uid="{2CD1F38A-D5B6-44A0-89D8-56352E5EDEBB}"/>
+    <hyperlink ref="G60" r:id="rId52" xr:uid="{EF1B886F-744B-4E43-9A5C-5CE3A023FE6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
 </worksheet>
 </file>
--- a/诗歌清单.xlsx
+++ b/诗歌清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2F93E-8A7D-4FF1-B626-37AA8FF3DA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA34F3-901E-43CD-911B-F98E61224510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="180">
   <si>
     <t>有一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,6 +688,54 @@
   </si>
   <si>
     <t>yrsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp32.9ku.com/upload/128/2018/09/17/881923.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/517/516797.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/hot/2012/10-21/529053.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/hot/2013/05-30/513747.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/527/526668.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/543/542934.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/hot/2010/05-27/308793.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/hot/2012/04-01/465982.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/467/466026.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/467/466052.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/529/528908.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp3.9ku.com/mp3/467/466011.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,7 +1157,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1167,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.25" customWidth="1"/>
+    <col min="6" max="6" width="51.125" customWidth="1"/>
     <col min="7" max="7" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1162,6 +1210,9 @@
       <c r="E2">
         <v>915</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="G2" s="7" t="s">
         <v>67</v>
       </c>
@@ -1182,6 +1233,9 @@
       <c r="E3">
         <v>219</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>72</v>
       </c>
@@ -1202,6 +1256,9 @@
       <c r="E4">
         <v>524</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>73</v>
       </c>
@@ -1222,6 +1279,9 @@
       <c r="E5">
         <v>1010</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>74</v>
       </c>
@@ -1242,6 +1302,9 @@
       <c r="E6">
         <v>305</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>77</v>
       </c>
@@ -1262,6 +1325,9 @@
       <c r="E7">
         <v>311</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>80</v>
       </c>
@@ -1282,6 +1348,9 @@
       <c r="E8">
         <v>511</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>81</v>
       </c>
@@ -1302,6 +1371,9 @@
       <c r="E9">
         <v>712</v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="G9" s="7" t="s">
         <v>84</v>
       </c>
@@ -1342,6 +1414,9 @@
       <c r="E11">
         <v>469</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>86</v>
       </c>
@@ -2085,6 +2160,9 @@
       <c r="E48">
         <v>504</v>
       </c>
+      <c r="F48" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="G48" s="7" t="s">
         <v>150</v>
       </c>
@@ -2225,6 +2303,9 @@
       <c r="E55">
         <v>398</v>
       </c>
+      <c r="F55" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="G55" s="7" t="s">
         <v>158</v>
       </c>
@@ -2284,6 +2365,9 @@
       </c>
       <c r="E58">
         <v>905</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>163</v>
@@ -2384,8 +2468,20 @@
     <hyperlink ref="G58" r:id="rId50" xr:uid="{CCEFE13D-7F3F-4ECA-B898-4DC143F6202F}"/>
     <hyperlink ref="G59" r:id="rId51" xr:uid="{2CD1F38A-D5B6-44A0-89D8-56352E5EDEBB}"/>
     <hyperlink ref="G60" r:id="rId52" xr:uid="{EF1B886F-744B-4E43-9A5C-5CE3A023FE6C}"/>
+    <hyperlink ref="F58" r:id="rId53" xr:uid="{D5B39D1F-8013-42FC-9B05-27F01325A952}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{FC97CB62-1831-4234-98ED-AA579FD3E386}"/>
+    <hyperlink ref="F48" r:id="rId55" xr:uid="{B9855687-F02C-46A3-8D8C-7467BACA2DFE}"/>
+    <hyperlink ref="F8" r:id="rId56" xr:uid="{E6C931CE-52D0-40EC-82EE-33C5452DB4F9}"/>
+    <hyperlink ref="F2" r:id="rId57" xr:uid="{82BA9818-E0AC-48D2-B450-D6A860B9BE84}"/>
+    <hyperlink ref="F3" r:id="rId58" xr:uid="{73EA35C4-FAE0-47CF-B398-F52018817083}"/>
+    <hyperlink ref="F4" r:id="rId59" xr:uid="{72AF2894-4735-4266-8AB1-1305D0299F9B}"/>
+    <hyperlink ref="F5" r:id="rId60" xr:uid="{F41D1DFB-15F5-41DC-A698-959DCE7B5B34}"/>
+    <hyperlink ref="F6" r:id="rId61" xr:uid="{AF37CCAD-7746-405C-9AC6-1EBF17AC091E}"/>
+    <hyperlink ref="F9" r:id="rId62" xr:uid="{146643BD-7486-48B1-ABB8-221D2A131D4E}"/>
+    <hyperlink ref="F7" r:id="rId63" xr:uid="{646FC863-7BAF-4253-AAAB-895E4C8481DA}"/>
+    <hyperlink ref="F11" r:id="rId64" xr:uid="{EE2DCF7B-DE97-40AC-9C7E-2E149FFE30CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
 </worksheet>
 </file>
--- a/诗歌清单.xlsx
+++ b/诗歌清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA34F3-901E-43CD-911B-F98E61224510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B37019-C67F-481E-B4C5-A4CDD5867A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>有一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,50 +266,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诗歌本代号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗歌本内编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耶稣，耶稣-圣洁的救赎主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诗歌本名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/04/17/516e24cb00769e04100000ca.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天韵之声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tyzs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和散那诗篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsnsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2014/06/03/538d7d2a00769e8024000dab.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,26 +286,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zmzq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赞美之泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/05/07/51886d1200769e702f000022.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小羊诗歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xysg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/04/23/5176312c00769eb81b00009d.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,14 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泥土音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/05/07/5188814700769ec82b000031.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,22 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天匙敬拜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tyjb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小草诗歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xcsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2016/03/04/56d8d6178362dc9a5e8b48f0.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,30 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屠天音乐事工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣以琳音乐事工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sylyysg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttyysg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzht</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hyzg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2016/08/02/579f78768362dc1b3d8b458e.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,26 +333,10 @@
     <t>http://file.zanmeishi.com/store/2017/03/06/58bcdbf175a6e17c4f574b63.jpg</t>
   </si>
   <si>
-    <t>喜乐赞美主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xlzmz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2014/11/06/545b05cf8062dc250b8bb218.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命河灵粮堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smhllt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/04/14/516a4c3e00769e9002000090.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,18 +381,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>829.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/04/16/516cf87e00769ec81c000046.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>221.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/05/07/518870be00769e702f000045.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,14 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天韵诗歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tysg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2014/06/03/538d7d4900769e8024000f5b.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,45 +413,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>527.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赞美诗选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zmsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一最爱是你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qita</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wydam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wydam.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>292.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.png</t>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2017/02/28/58b55ba175a6e16fe51ef047.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,26 +433,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童天地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ettd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2014/11/14/5465d4558062dc913b8b6efe.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灯台诗选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2015/01/06/54ab97af8062dc0b0c8b89d1.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,10 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tygtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2013/07/03/51d38bfe00769eec1c00001c.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,18 +472,6 @@
     <t>http://file.zanmeishi.com/store/2015/01/05/54aab0ab8062dc733a8b9354.gif</t>
   </si>
   <si>
-    <t>赞美诗集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zmsj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>268.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2016/01/12/5694b3c28362dca6078b734a.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,14 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wwgqd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yrsn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://mp32.9ku.com/upload/128/2018/09/17/881923.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,6 +529,34 @@
   </si>
   <si>
     <t>https://mp3.9ku.com/mp3/467/466011.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,14 +651,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,1332 +974,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.125" customWidth="1"/>
-    <col min="7" max="7" width="64.75" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="4" max="4" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2">
-        <v>915</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>219</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4">
-        <v>524</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>1010</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>305</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7">
-        <v>311</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <v>511</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9">
-        <v>712</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10">
-        <v>1410</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11">
-        <v>469</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D12" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13">
-        <v>1611</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14">
-        <v>727</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D16" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17">
-        <v>962</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18">
-        <v>407</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19">
-        <v>858</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20">
-        <v>503</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21">
-        <v>312</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22">
-        <v>289</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D22" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23">
-        <v>777</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>645</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D24" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25">
-        <v>490</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D25" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26">
-        <v>505</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27">
-        <v>205</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28">
-        <v>638</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D28" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29">
-        <v>829</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30">
-        <v>744</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D30" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31">
-        <v>221</v>
-      </c>
-      <c r="G31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32">
-        <v>408</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33">
-        <v>649</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34">
-        <v>480</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D34" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35">
-        <v>85</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D35" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D36" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37">
-        <v>327</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D37" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38">
-        <v>774</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39">
-        <v>527</v>
-      </c>
-      <c r="G39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
       <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
       <c r="D41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41">
-        <v>292</v>
-      </c>
-      <c r="G41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
       <c r="D42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42">
-        <v>120</v>
-      </c>
-      <c r="G42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43">
-        <v>532</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D43" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44">
-        <v>132</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D44" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45">
-        <v>260</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D45" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46">
-        <v>87</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D46" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47">
-        <v>180</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D47" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48">
-        <v>504</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D49" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50">
-        <v>604</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
       </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51">
-        <v>759</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D51" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52">
-        <v>282</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D52" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53">
-        <v>502</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D53" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54">
-        <v>220</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D54" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55">
-        <v>398</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56">
-        <v>605</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D56" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>160</v>
-      </c>
       <c r="D57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57">
-        <v>268</v>
-      </c>
-      <c r="G57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58">
-        <v>905</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C58" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59">
-        <v>707</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D59" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>165</v>
+      <c r="D60" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" xr:uid="{63D14409-AF7B-4548-BD03-5652DE8C91D1}"/>
-    <hyperlink ref="G21" r:id="rId2" xr:uid="{FC684CE1-E091-45F5-A41C-A877CF77595F}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{12132AFE-36A4-42BA-BD5F-2E827C322C54}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{5D156B41-036A-4154-9E00-EFE810957421}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{8EFC9454-D87D-4A26-9F53-C06ECC2E6CAA}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{D4C63673-98F2-4668-BBE3-9CC628E4403A}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{006EE4C2-F8CD-4EBD-A20E-351D95A7A2B7}"/>
-    <hyperlink ref="G7" r:id="rId8" xr:uid="{08B50DC4-B410-4AAB-BCDF-FDABA9DE4FEE}"/>
-    <hyperlink ref="G8" r:id="rId9" xr:uid="{BDF8B0C1-193D-4D83-A5EC-623D062A15F1}"/>
-    <hyperlink ref="G9" r:id="rId10" xr:uid="{1CA3779C-AA58-4388-9A0E-2E103D73D4C2}"/>
-    <hyperlink ref="G10" r:id="rId11" xr:uid="{2534ECEE-2E05-49C8-9238-EAE455C928AC}"/>
-    <hyperlink ref="G11" r:id="rId12" xr:uid="{9AB8B529-CE79-4781-B755-ED5A93D9DBDB}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{A5F00593-B90F-4843-B4DF-8D4CBE38C148}"/>
-    <hyperlink ref="G13" r:id="rId14" xr:uid="{9021DE4B-5DE2-4683-AB43-72F6CACBCC18}"/>
-    <hyperlink ref="G14" r:id="rId15" xr:uid="{A403DD73-96F4-4B84-8020-141FA831E4A2}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{DD0DC94E-46D5-40F2-9EC9-AA788E9711D5}"/>
-    <hyperlink ref="G16" r:id="rId17" xr:uid="{5F49E5F1-4A32-466E-AFFD-5226D5BFA397}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{5BABA99C-37BE-484B-980A-4DED096C1CE7}"/>
-    <hyperlink ref="G19" r:id="rId19" xr:uid="{303F1CE6-C3E6-4DEB-868A-5E67DA03EC33}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{C6BFF365-36B5-4D70-9D12-2436FC62EAE3}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{12817A94-9559-4E39-9F9D-C850DA79A053}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{51C559F6-95DC-4336-A335-0B702B3D1AB3}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{9AEE74D3-241E-4321-AD8D-F19FB2C60930}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{E35C2148-7818-4387-9B15-A1F909074C47}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{5B9C30CB-8F6D-4A15-9746-EFF6B10237F7}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{158B9CA8-9BAB-480D-922D-F1A6E57929C7}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{ECC3FB39-1C25-4D20-BD33-FA449E564292}"/>
-    <hyperlink ref="G30" r:id="rId28" xr:uid="{6D8D0BBB-9B29-439D-8A36-63A79FD771C3}"/>
-    <hyperlink ref="G32" r:id="rId29" xr:uid="{167DB2FB-CDAD-406C-9E6B-D912AFAF1B42}"/>
-    <hyperlink ref="G33" r:id="rId30" xr:uid="{1EC5D319-09D2-4630-93C6-A6B307A32D08}"/>
-    <hyperlink ref="G34" r:id="rId31" xr:uid="{F69A7C99-F7E2-468F-A827-C58FBB5BD390}"/>
-    <hyperlink ref="G35" r:id="rId32" xr:uid="{C7939B7E-D99A-40EC-B980-3905D28106BA}"/>
-    <hyperlink ref="G36" r:id="rId33" xr:uid="{1FB47F5E-54FA-4E57-BD7D-3BF173E775C9}"/>
-    <hyperlink ref="G37" r:id="rId34" xr:uid="{39D0A5D2-E6D9-4496-BA83-B16AEBBB0EE9}"/>
-    <hyperlink ref="G38" r:id="rId35" xr:uid="{B9150320-936F-4A8B-BD36-5C6A6CD5E2E3}"/>
-    <hyperlink ref="G43" r:id="rId36" xr:uid="{07C9D18F-0022-42F3-A3FF-E270EA24494B}"/>
-    <hyperlink ref="G44" r:id="rId37" xr:uid="{D5B19F4F-9B48-4FE0-BDBD-5E1AEADDD6FE}"/>
-    <hyperlink ref="G45" r:id="rId38" xr:uid="{6684AE24-3810-44DE-8992-0A43A1BC1ED3}"/>
-    <hyperlink ref="G46" r:id="rId39" xr:uid="{A0D01474-68B5-4B52-B098-BFB3D968AFFC}"/>
-    <hyperlink ref="G47" r:id="rId40" xr:uid="{C055F7BE-E806-448D-84CE-A2F4234E7867}"/>
-    <hyperlink ref="G48" r:id="rId41" xr:uid="{8A55557C-0399-4E05-A78E-0CE4BA3AB916}"/>
-    <hyperlink ref="G49" r:id="rId42" xr:uid="{C9E7A4C4-33AF-456F-A2E1-9A2809DA866A}"/>
-    <hyperlink ref="G50" r:id="rId43" xr:uid="{886C2D99-E6EB-4CE7-BD03-9A31F6C3F002}"/>
-    <hyperlink ref="G51" r:id="rId44" xr:uid="{30646785-90DE-48C8-8935-E1C295EC85EC}"/>
-    <hyperlink ref="G52" r:id="rId45" xr:uid="{117F2B82-7E53-4847-89B1-8755F73EA97C}"/>
-    <hyperlink ref="G53" r:id="rId46" xr:uid="{9EC703A8-4825-4556-9F1F-0585783F3344}"/>
-    <hyperlink ref="G54" r:id="rId47" xr:uid="{FE37E88D-9644-4683-B47C-312629CAEF2C}"/>
-    <hyperlink ref="G55" r:id="rId48" xr:uid="{73EEA054-C7DB-4660-8EEA-7C7234BCF6DA}"/>
-    <hyperlink ref="G56" r:id="rId49" xr:uid="{A6EB22A0-A1CA-4D6D-8161-829173CF26FD}"/>
-    <hyperlink ref="G58" r:id="rId50" xr:uid="{CCEFE13D-7F3F-4ECA-B898-4DC143F6202F}"/>
-    <hyperlink ref="G59" r:id="rId51" xr:uid="{2CD1F38A-D5B6-44A0-89D8-56352E5EDEBB}"/>
-    <hyperlink ref="G60" r:id="rId52" xr:uid="{EF1B886F-744B-4E43-9A5C-5CE3A023FE6C}"/>
-    <hyperlink ref="F58" r:id="rId53" xr:uid="{D5B39D1F-8013-42FC-9B05-27F01325A952}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{FC97CB62-1831-4234-98ED-AA579FD3E386}"/>
-    <hyperlink ref="F48" r:id="rId55" xr:uid="{B9855687-F02C-46A3-8D8C-7467BACA2DFE}"/>
-    <hyperlink ref="F8" r:id="rId56" xr:uid="{E6C931CE-52D0-40EC-82EE-33C5452DB4F9}"/>
-    <hyperlink ref="F2" r:id="rId57" xr:uid="{82BA9818-E0AC-48D2-B450-D6A860B9BE84}"/>
-    <hyperlink ref="F3" r:id="rId58" xr:uid="{73EA35C4-FAE0-47CF-B398-F52018817083}"/>
-    <hyperlink ref="F4" r:id="rId59" xr:uid="{72AF2894-4735-4266-8AB1-1305D0299F9B}"/>
-    <hyperlink ref="F5" r:id="rId60" xr:uid="{F41D1DFB-15F5-41DC-A698-959DCE7B5B34}"/>
-    <hyperlink ref="F6" r:id="rId61" xr:uid="{AF37CCAD-7746-405C-9AC6-1EBF17AC091E}"/>
-    <hyperlink ref="F9" r:id="rId62" xr:uid="{146643BD-7486-48B1-ABB8-221D2A131D4E}"/>
-    <hyperlink ref="F7" r:id="rId63" xr:uid="{646FC863-7BAF-4253-AAAB-895E4C8481DA}"/>
-    <hyperlink ref="F11" r:id="rId64" xr:uid="{EE2DCF7B-DE97-40AC-9C7E-2E149FFE30CB}"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{63D14409-AF7B-4548-BD03-5652DE8C91D1}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{FC684CE1-E091-45F5-A41C-A877CF77595F}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{12132AFE-36A4-42BA-BD5F-2E827C322C54}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{5D156B41-036A-4154-9E00-EFE810957421}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{8EFC9454-D87D-4A26-9F53-C06ECC2E6CAA}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{D4C63673-98F2-4668-BBE3-9CC628E4403A}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{006EE4C2-F8CD-4EBD-A20E-351D95A7A2B7}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{08B50DC4-B410-4AAB-BCDF-FDABA9DE4FEE}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{BDF8B0C1-193D-4D83-A5EC-623D062A15F1}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{1CA3779C-AA58-4388-9A0E-2E103D73D4C2}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{2534ECEE-2E05-49C8-9238-EAE455C928AC}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{9AB8B529-CE79-4781-B755-ED5A93D9DBDB}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{A5F00593-B90F-4843-B4DF-8D4CBE38C148}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{9021DE4B-5DE2-4683-AB43-72F6CACBCC18}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{A403DD73-96F4-4B84-8020-141FA831E4A2}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{DD0DC94E-46D5-40F2-9EC9-AA788E9711D5}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{5F49E5F1-4A32-466E-AFFD-5226D5BFA397}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{5BABA99C-37BE-484B-980A-4DED096C1CE7}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{303F1CE6-C3E6-4DEB-868A-5E67DA03EC33}"/>
+    <hyperlink ref="D20" r:id="rId20" xr:uid="{C6BFF365-36B5-4D70-9D12-2436FC62EAE3}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{12817A94-9559-4E39-9F9D-C850DA79A053}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{51C559F6-95DC-4336-A335-0B702B3D1AB3}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{9AEE74D3-241E-4321-AD8D-F19FB2C60930}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{E35C2148-7818-4387-9B15-A1F909074C47}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{5B9C30CB-8F6D-4A15-9746-EFF6B10237F7}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{158B9CA8-9BAB-480D-922D-F1A6E57929C7}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{ECC3FB39-1C25-4D20-BD33-FA449E564292}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{6D8D0BBB-9B29-439D-8A36-63A79FD771C3}"/>
+    <hyperlink ref="D32" r:id="rId29" xr:uid="{167DB2FB-CDAD-406C-9E6B-D912AFAF1B42}"/>
+    <hyperlink ref="D33" r:id="rId30" xr:uid="{1EC5D319-09D2-4630-93C6-A6B307A32D08}"/>
+    <hyperlink ref="D34" r:id="rId31" xr:uid="{F69A7C99-F7E2-468F-A827-C58FBB5BD390}"/>
+    <hyperlink ref="D35" r:id="rId32" xr:uid="{C7939B7E-D99A-40EC-B980-3905D28106BA}"/>
+    <hyperlink ref="D36" r:id="rId33" xr:uid="{1FB47F5E-54FA-4E57-BD7D-3BF173E775C9}"/>
+    <hyperlink ref="D37" r:id="rId34" xr:uid="{39D0A5D2-E6D9-4496-BA83-B16AEBBB0EE9}"/>
+    <hyperlink ref="D38" r:id="rId35" xr:uid="{B9150320-936F-4A8B-BD36-5C6A6CD5E2E3}"/>
+    <hyperlink ref="D43" r:id="rId36" xr:uid="{07C9D18F-0022-42F3-A3FF-E270EA24494B}"/>
+    <hyperlink ref="D44" r:id="rId37" xr:uid="{D5B19F4F-9B48-4FE0-BDBD-5E1AEADDD6FE}"/>
+    <hyperlink ref="D45" r:id="rId38" xr:uid="{6684AE24-3810-44DE-8992-0A43A1BC1ED3}"/>
+    <hyperlink ref="D46" r:id="rId39" xr:uid="{A0D01474-68B5-4B52-B098-BFB3D968AFFC}"/>
+    <hyperlink ref="D47" r:id="rId40" xr:uid="{C055F7BE-E806-448D-84CE-A2F4234E7867}"/>
+    <hyperlink ref="D48" r:id="rId41" xr:uid="{8A55557C-0399-4E05-A78E-0CE4BA3AB916}"/>
+    <hyperlink ref="D49" r:id="rId42" xr:uid="{C9E7A4C4-33AF-456F-A2E1-9A2809DA866A}"/>
+    <hyperlink ref="D50" r:id="rId43" xr:uid="{886C2D99-E6EB-4CE7-BD03-9A31F6C3F002}"/>
+    <hyperlink ref="D51" r:id="rId44" xr:uid="{30646785-90DE-48C8-8935-E1C295EC85EC}"/>
+    <hyperlink ref="D52" r:id="rId45" xr:uid="{117F2B82-7E53-4847-89B1-8755F73EA97C}"/>
+    <hyperlink ref="D53" r:id="rId46" xr:uid="{9EC703A8-4825-4556-9F1F-0585783F3344}"/>
+    <hyperlink ref="D54" r:id="rId47" xr:uid="{FE37E88D-9644-4683-B47C-312629CAEF2C}"/>
+    <hyperlink ref="D55" r:id="rId48" xr:uid="{73EEA054-C7DB-4660-8EEA-7C7234BCF6DA}"/>
+    <hyperlink ref="D56" r:id="rId49" xr:uid="{A6EB22A0-A1CA-4D6D-8161-829173CF26FD}"/>
+    <hyperlink ref="D58" r:id="rId50" xr:uid="{CCEFE13D-7F3F-4ECA-B898-4DC143F6202F}"/>
+    <hyperlink ref="D59" r:id="rId51" xr:uid="{2CD1F38A-D5B6-44A0-89D8-56352E5EDEBB}"/>
+    <hyperlink ref="D60" r:id="rId52" xr:uid="{EF1B886F-744B-4E43-9A5C-5CE3A023FE6C}"/>
+    <hyperlink ref="C58" r:id="rId53" xr:uid="{D5B39D1F-8013-42FC-9B05-27F01325A952}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{FC97CB62-1831-4234-98ED-AA579FD3E386}"/>
+    <hyperlink ref="C48" r:id="rId55" xr:uid="{B9855687-F02C-46A3-8D8C-7467BACA2DFE}"/>
+    <hyperlink ref="C8" r:id="rId56" xr:uid="{E6C931CE-52D0-40EC-82EE-33C5452DB4F9}"/>
+    <hyperlink ref="C2" r:id="rId57" xr:uid="{82BA9818-E0AC-48D2-B450-D6A860B9BE84}"/>
+    <hyperlink ref="C3" r:id="rId58" xr:uid="{73EA35C4-FAE0-47CF-B398-F52018817083}"/>
+    <hyperlink ref="C4" r:id="rId59" xr:uid="{72AF2894-4735-4266-8AB1-1305D0299F9B}"/>
+    <hyperlink ref="C5" r:id="rId60" xr:uid="{F41D1DFB-15F5-41DC-A698-959DCE7B5B34}"/>
+    <hyperlink ref="C6" r:id="rId61" xr:uid="{AF37CCAD-7746-405C-9AC6-1EBF17AC091E}"/>
+    <hyperlink ref="C9" r:id="rId62" xr:uid="{146643BD-7486-48B1-ABB8-221D2A131D4E}"/>
+    <hyperlink ref="C7" r:id="rId63" xr:uid="{646FC863-7BAF-4253-AAAB-895E4C8481DA}"/>
+    <hyperlink ref="C11" r:id="rId64" xr:uid="{EE2DCF7B-DE97-40AC-9C7E-2E149FFE30CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>

--- a/诗歌清单.xlsx
+++ b/诗歌清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B37019-C67F-481E-B4C5-A4CDD5867A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3C6D33-BCB4-4DB0-AAAE-60AB9077A038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,6 +553,10 @@
   </si>
   <si>
     <t>56.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.zanmeishi.com/store/2017/06/15/594242b875a6e155f46ac915.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1358,8 +1358,8 @@
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" t="s">
-        <v>131</v>
+      <c r="D31" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1757,8 +1757,9 @@
     <hyperlink ref="C9" r:id="rId62" xr:uid="{146643BD-7486-48B1-ABB8-221D2A131D4E}"/>
     <hyperlink ref="C7" r:id="rId63" xr:uid="{646FC863-7BAF-4253-AAAB-895E4C8481DA}"/>
     <hyperlink ref="C11" r:id="rId64" xr:uid="{EE2DCF7B-DE97-40AC-9C7E-2E149FFE30CB}"/>
+    <hyperlink ref="D31" r:id="rId65" xr:uid="{5C92F67C-420E-4786-8A37-99D4D20C3435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId66"/>
 </worksheet>
 </file>
--- a/诗歌清单.xlsx
+++ b/诗歌清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3C6D33-BCB4-4DB0-AAAE-60AB9077A038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A23174-681F-49F2-BBA2-315084A0351B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,31 +532,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>39.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://file.zanmeishi.com/store/2017/06/15/594242b875a6e155f46ac915.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>038.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>041.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>056.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1337,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1458,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
